--- a/dtpu_configurations/only_integer16/80mhz/mxu_5x5/timing.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_5x5/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.3919655680656433</v>
+        <v>0.7978915572166443</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.020987212657928467</v>
+        <v>0.020880408585071564</v>
       </c>
     </row>
   </sheetData>
